--- a/Foundation/egovframework.rte.fdl.excel/testdata/testModifyCellContents.xlsx
+++ b/Foundation/egovframework.rte.fdl.excel/testdata/testModifyCellContents.xlsx
@@ -57,10 +57,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true"/>
@@ -71,9 +71,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="C3:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
